--- a/medicine/Pharmacie/Antihypertenseur/Antihypertenseur.xlsx
+++ b/medicine/Pharmacie/Antihypertenseur/Antihypertenseur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les antihypertenseurs, ou hypotenseurs, sont une classe de médicaments qui sont administrés pour réduire l'hypertension artérielle[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les antihypertenseurs, ou hypotenseurs, sont une classe de médicaments qui sont administrés pour réduire l'hypertension artérielle.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Les diurétiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les diurétiques agissent par élimination d’une partie de l’eau et du sodium contenu dans le sang : ceci induit une diminution du volume sanguin et donc une baisse de la tension artérielle[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les diurétiques agissent par élimination d’une partie de l’eau et du sodium contenu dans le sang : ceci induit une diminution du volume sanguin et donc une baisse de la tension artérielle.
 Il existe trois familles de diurétiques: thiazidiques (et apparentés), diurétiques de l'anse de Henlé et enfin les anti-aldostérone. Les deux premières familles offrent des molécules kaliurétiques (augmentent l'élimination urinaire du potassium et favorisent donc l'hypokaliémie) tandis que les anti-aldostérones à l'inverse retiennent le potassium urinaire (et favorisent donc l'hyperkaliémie).
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Les bêta-bloquants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bêta-bloquants agissent principalement en réduisant l'activité des catécholamines sur le cœur et en diminuant la sécrétion de rénine (ils agissent donc aussi à l'encontre du système rénine angiotensine aldostérone). 
 </t>
@@ -574,7 +590,9 @@
           <t>Les inhibiteurs de l'enzyme de conversion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les inhibiteurs de l'enzyme de conversion (IECA, IEC) combattent la stimulation du système rénine-angiotensine-aldostérone et réduisent les taux circulants d'angiotensine II et d'aldostérone. 
 </t>
@@ -605,7 +623,9 @@
           <t>Les antagonistes des récepteurs de l'angiotensine II</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les antagonistes de l’angiotensine II (ARA-II ou sartans) sont une classe thérapeutique relativement nouvelle qui suscite un grand intérêt par sa très bonne tolérance et un mécanisme d’action original (blocage direct des récepteurs de l’angiotensine II). Ils sont très proches des IEC.
 </t>
@@ -636,7 +656,9 @@
           <t>Les inhibiteurs calciques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les inhibiteurs calciques réduisent le tonus des artères en diminuant les capacités vasoconstrictrices (calcium-dépendant) des fibres musculaires lisses artérielles en inhibant le transfert transmembranaire du calcium.
 </t>
@@ -667,7 +689,9 @@
           <t>Autres antihypertenseurs</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Ils sont plutôt utilisés comme traitement d'appoint.
 Les antihypertenseurs centraux
@@ -701,9 +725,11 @@
           <t>Autres</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'administration au coucher est significativement associée à une incidence moindre d'infarctus du myocarde par rapport à l'administration le matin[4].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'administration au coucher est significativement associée à une incidence moindre d'infarctus du myocarde par rapport à l'administration le matin.
 </t>
         </is>
       </c>
